--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnf-Tnfrsf21.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnf-Tnfrsf21.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.033516</v>
+        <v>4.300877666666666</v>
       </c>
       <c r="H2">
-        <v>18.100548</v>
+        <v>12.902633</v>
       </c>
       <c r="I2">
-        <v>0.03870191373736741</v>
+        <v>0.04061703229494078</v>
       </c>
       <c r="J2">
-        <v>0.03870191373736741</v>
+        <v>0.04061703229494078</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.291888333333334</v>
+        <v>5.455768666666667</v>
       </c>
       <c r="N2">
-        <v>18.875665</v>
+        <v>16.367306</v>
       </c>
       <c r="O2">
-        <v>0.08878690568774233</v>
+        <v>0.0824390136851795</v>
       </c>
       <c r="P2">
-        <v>0.08878690568774233</v>
+        <v>0.0824390136851795</v>
       </c>
       <c r="Q2">
-        <v>37.96220892938</v>
+        <v>23.46459361296644</v>
       </c>
       <c r="R2">
-        <v>341.65988036442</v>
+        <v>211.181342516698</v>
       </c>
       <c r="S2">
-        <v>0.003436223164934779</v>
+        <v>0.003348428081214</v>
       </c>
       <c r="T2">
-        <v>0.00343622316493478</v>
+        <v>0.003348428081214001</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.033516</v>
+        <v>4.300877666666666</v>
       </c>
       <c r="H3">
-        <v>18.100548</v>
+        <v>12.902633</v>
       </c>
       <c r="I3">
-        <v>0.03870191373736741</v>
+        <v>0.04061703229494078</v>
       </c>
       <c r="J3">
-        <v>0.03870191373736741</v>
+        <v>0.04061703229494078</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.902445</v>
       </c>
       <c r="O3">
-        <v>0.03246755720817405</v>
+        <v>0.03476630532942922</v>
       </c>
       <c r="P3">
-        <v>0.03246755720817405</v>
+        <v>0.03476630532942922</v>
       </c>
       <c r="Q3">
-        <v>13.88200411554</v>
+        <v>9.895523848631665</v>
       </c>
       <c r="R3">
-        <v>124.93803703986</v>
+        <v>89.05971463768499</v>
       </c>
       <c r="S3">
-        <v>0.001256556598333793</v>
+        <v>0.001412104146341198</v>
       </c>
       <c r="T3">
-        <v>0.001256556598333794</v>
+        <v>0.001412104146341199</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.033516</v>
+        <v>4.300877666666666</v>
       </c>
       <c r="H4">
-        <v>18.100548</v>
+        <v>12.902633</v>
       </c>
       <c r="I4">
-        <v>0.03870191373736741</v>
+        <v>0.04061703229494078</v>
       </c>
       <c r="J4">
-        <v>0.03870191373736741</v>
+        <v>0.04061703229494078</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.47580733333334</v>
+        <v>29.166511</v>
       </c>
       <c r="N4">
-        <v>79.42742200000001</v>
+        <v>87.499533</v>
       </c>
       <c r="O4">
-        <v>0.3736088252326215</v>
+        <v>0.4407185396566677</v>
       </c>
       <c r="P4">
-        <v>0.3736088252326215</v>
+        <v>0.4407185396566677</v>
       </c>
       <c r="Q4">
-        <v>159.742207158584</v>
+        <v>125.4415957744876</v>
       </c>
       <c r="R4">
-        <v>1437.679864427256</v>
+        <v>1128.974361970389</v>
       </c>
       <c r="S4">
-        <v>0.01445937652567209</v>
+        <v>0.01790067915821401</v>
       </c>
       <c r="T4">
-        <v>0.0144593765256721</v>
+        <v>0.01790067915821401</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.033516</v>
+        <v>4.300877666666666</v>
       </c>
       <c r="H5">
-        <v>18.100548</v>
+        <v>12.902633</v>
       </c>
       <c r="I5">
-        <v>0.03870191373736741</v>
+        <v>0.04061703229494078</v>
       </c>
       <c r="J5">
-        <v>0.03870191373736741</v>
+        <v>0.04061703229494078</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.057317666666666</v>
+        <v>3.497096</v>
       </c>
       <c r="N5">
-        <v>12.171953</v>
+        <v>10.491288</v>
       </c>
       <c r="O5">
-        <v>0.0572541440551436</v>
+        <v>0.05284262633124592</v>
       </c>
       <c r="P5">
-        <v>0.0572541440551436</v>
+        <v>0.05284262633124593</v>
       </c>
       <c r="Q5">
-        <v>24.479891058916</v>
+        <v>15.04058208458933</v>
       </c>
       <c r="R5">
-        <v>220.319019530244</v>
+        <v>135.365238761304</v>
       </c>
       <c r="S5">
-        <v>0.002215844944328975</v>
+        <v>0.002146310660245703</v>
       </c>
       <c r="T5">
-        <v>0.002215844944328975</v>
+        <v>0.002146310660245704</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.033516</v>
+        <v>4.300877666666666</v>
       </c>
       <c r="H6">
-        <v>18.100548</v>
+        <v>12.902633</v>
       </c>
       <c r="I6">
-        <v>0.03870191373736741</v>
+        <v>0.04061703229494078</v>
       </c>
       <c r="J6">
-        <v>0.03870191373736741</v>
+        <v>0.04061703229494078</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.73921966666667</v>
+        <v>25.75926033333333</v>
       </c>
       <c r="N6">
-        <v>95.217659</v>
+        <v>77.277781</v>
       </c>
       <c r="O6">
-        <v>0.4478825678163185</v>
+        <v>0.3892335149974776</v>
       </c>
       <c r="P6">
-        <v>0.4478825678163185</v>
+        <v>0.3892335149974776</v>
       </c>
       <c r="Q6">
-        <v>191.499089686348</v>
+        <v>110.7874274774859</v>
       </c>
       <c r="R6">
-        <v>1723.491807177132</v>
+        <v>997.0868472973729</v>
       </c>
       <c r="S6">
-        <v>0.01733391250409777</v>
+        <v>0.01580951024892586</v>
       </c>
       <c r="T6">
-        <v>0.01733391250409777</v>
+        <v>0.01580951024892586</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.063288</v>
       </c>
       <c r="I7">
-        <v>0.002273482573786049</v>
+        <v>0.003347193013613811</v>
       </c>
       <c r="J7">
-        <v>0.002273482573786049</v>
+        <v>0.003347193013613811</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.291888333333334</v>
+        <v>5.455768666666667</v>
       </c>
       <c r="N7">
-        <v>18.875665</v>
+        <v>16.367306</v>
       </c>
       <c r="O7">
-        <v>0.08878690568774233</v>
+        <v>0.0824390136851795</v>
       </c>
       <c r="P7">
-        <v>0.08878690568774233</v>
+        <v>0.0824390136851795</v>
       </c>
       <c r="Q7">
-        <v>2.230029787391111</v>
+        <v>1.933684451347556</v>
       </c>
       <c r="R7">
-        <v>20.07026808652</v>
+        <v>17.403160062128</v>
       </c>
       <c r="S7">
-        <v>0.0002018554828614676</v>
+        <v>0.0002759392906562461</v>
       </c>
       <c r="T7">
-        <v>0.0002018554828614676</v>
+        <v>0.0002759392906562461</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.063288</v>
       </c>
       <c r="I8">
-        <v>0.002273482573786049</v>
+        <v>0.003347193013613811</v>
       </c>
       <c r="J8">
-        <v>0.002273482573786049</v>
+        <v>0.003347193013613811</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>6.902445</v>
       </c>
       <c r="O8">
-        <v>0.03246755720817405</v>
+        <v>0.03476630532942922</v>
       </c>
       <c r="P8">
-        <v>0.03246755720817405</v>
+        <v>0.03476630532942922</v>
       </c>
       <c r="Q8">
         <v>0.8154763265733334</v>
@@ -948,10 +948,10 @@
         <v>7.33928693916</v>
       </c>
       <c r="S8">
-        <v>7.381442552618531E-05</v>
+        <v>0.0001163695343078301</v>
       </c>
       <c r="T8">
-        <v>7.381442552618531E-05</v>
+        <v>0.0001163695343078301</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1.063288</v>
       </c>
       <c r="I9">
-        <v>0.002273482573786049</v>
+        <v>0.003347193013613811</v>
       </c>
       <c r="J9">
-        <v>0.002273482573786049</v>
+        <v>0.003347193013613811</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.47580733333334</v>
+        <v>29.166511</v>
       </c>
       <c r="N9">
-        <v>79.42742200000001</v>
+        <v>87.499533</v>
       </c>
       <c r="O9">
-        <v>0.3736088252326215</v>
+        <v>0.4407185396566677</v>
       </c>
       <c r="P9">
-        <v>0.3736088252326215</v>
+        <v>0.4407185396566677</v>
       </c>
       <c r="Q9">
-        <v>9.383802742615112</v>
+        <v>10.33746704938933</v>
       </c>
       <c r="R9">
-        <v>84.45422468353601</v>
+        <v>93.037203444504</v>
       </c>
       <c r="S9">
-        <v>0.0008493931535790424</v>
+        <v>0.00147517001690888</v>
       </c>
       <c r="T9">
-        <v>0.0008493931535790424</v>
+        <v>0.00147517001690888</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1.063288</v>
       </c>
       <c r="I10">
-        <v>0.002273482573786049</v>
+        <v>0.003347193013613811</v>
       </c>
       <c r="J10">
-        <v>0.002273482573786049</v>
+        <v>0.003347193013613811</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.057317666666666</v>
+        <v>3.497096</v>
       </c>
       <c r="N10">
-        <v>12.171953</v>
+        <v>10.491288</v>
       </c>
       <c r="O10">
-        <v>0.0572541440551436</v>
+        <v>0.05284262633124592</v>
       </c>
       <c r="P10">
-        <v>0.0572541440551436</v>
+        <v>0.05284262633124593</v>
       </c>
       <c r="Q10">
-        <v>1.438032395718222</v>
+        <v>1.239473403882666</v>
       </c>
       <c r="R10">
-        <v>12.942291561464</v>
+        <v>11.155260634944</v>
       </c>
       <c r="S10">
-        <v>0.0001301662987864051</v>
+        <v>0.0001768744696769515</v>
       </c>
       <c r="T10">
-        <v>0.0001301662987864051</v>
+        <v>0.0001768744696769516</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1.063288</v>
       </c>
       <c r="I11">
-        <v>0.002273482573786049</v>
+        <v>0.003347193013613811</v>
       </c>
       <c r="J11">
-        <v>0.002273482573786049</v>
+        <v>0.003347193013613811</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.73921966666667</v>
+        <v>25.75926033333333</v>
       </c>
       <c r="N11">
-        <v>95.217659</v>
+        <v>77.277781</v>
       </c>
       <c r="O11">
-        <v>0.4478825678163185</v>
+        <v>0.3892335149974776</v>
       </c>
       <c r="P11">
-        <v>0.4478825678163185</v>
+        <v>0.3892335149974776</v>
       </c>
       <c r="Q11">
-        <v>11.24931046697689</v>
+        <v>9.12983746710311</v>
       </c>
       <c r="R11">
-        <v>101.243794202792</v>
+        <v>82.16853720392801</v>
       </c>
       <c r="S11">
-        <v>0.001018253213032948</v>
+        <v>0.001302839702063903</v>
       </c>
       <c r="T11">
-        <v>0.001018253213032948</v>
+        <v>0.001302839702063903</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>65.44186166666667</v>
+        <v>61.65203333333333</v>
       </c>
       <c r="H12">
-        <v>196.325585</v>
+        <v>184.9561</v>
       </c>
       <c r="I12">
-        <v>0.4197760120361104</v>
+        <v>0.582235260574047</v>
       </c>
       <c r="J12">
-        <v>0.4197760120361104</v>
+        <v>0.5822352605740471</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.291888333333334</v>
+        <v>5.455768666666667</v>
       </c>
       <c r="N12">
-        <v>18.875665</v>
+        <v>16.367306</v>
       </c>
       <c r="O12">
-        <v>0.08878690568774233</v>
+        <v>0.0824390136851795</v>
       </c>
       <c r="P12">
-        <v>0.08878690568774233</v>
+        <v>0.0824390136851795</v>
       </c>
       <c r="Q12">
-        <v>411.7528859321139</v>
+        <v>336.3592316962889</v>
       </c>
       <c r="R12">
-        <v>3705.775973389025</v>
+        <v>3027.2330852666</v>
       </c>
       <c r="S12">
-        <v>0.03727061319062672</v>
+        <v>0.04799890061445791</v>
       </c>
       <c r="T12">
-        <v>0.03727061319062672</v>
+        <v>0.04799890061445792</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>65.44186166666667</v>
+        <v>61.65203333333333</v>
       </c>
       <c r="H13">
-        <v>196.325585</v>
+        <v>184.9561</v>
       </c>
       <c r="I13">
-        <v>0.4197760120361104</v>
+        <v>0.582235260574047</v>
       </c>
       <c r="J13">
-        <v>0.4197760120361104</v>
+        <v>0.5822352605740471</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>6.902445</v>
       </c>
       <c r="O13">
-        <v>0.03246755720817405</v>
+        <v>0.03476630532942922</v>
       </c>
       <c r="P13">
-        <v>0.03246755720817405</v>
+        <v>0.03476630532942922</v>
       </c>
       <c r="Q13">
-        <v>150.5696169505917</v>
+        <v>141.8499230738333</v>
       </c>
       <c r="R13">
-        <v>1355.126552555325</v>
+        <v>1276.6493076645</v>
       </c>
       <c r="S13">
-        <v>0.01362910168540157</v>
+        <v>0.0202421688426771</v>
       </c>
       <c r="T13">
-        <v>0.01362910168540157</v>
+        <v>0.02024216884267711</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>65.44186166666667</v>
+        <v>61.65203333333333</v>
       </c>
       <c r="H14">
-        <v>196.325585</v>
+        <v>184.9561</v>
       </c>
       <c r="I14">
-        <v>0.4197760120361104</v>
+        <v>0.582235260574047</v>
       </c>
       <c r="J14">
-        <v>0.4197760120361104</v>
+        <v>0.5822352605740471</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>26.47580733333334</v>
+        <v>29.166511</v>
       </c>
       <c r="N14">
-        <v>79.42742200000001</v>
+        <v>87.499533</v>
       </c>
       <c r="O14">
-        <v>0.3736088252326215</v>
+        <v>0.4407185396566677</v>
       </c>
       <c r="P14">
-        <v>0.3736088252326215</v>
+        <v>0.4407185396566677</v>
       </c>
       <c r="Q14">
-        <v>1732.626121021319</v>
+        <v>1798.174708389033</v>
       </c>
       <c r="R14">
-        <v>15593.63508919187</v>
+        <v>16183.5723755013</v>
       </c>
       <c r="S14">
-        <v>0.156832022717646</v>
+        <v>0.2566018737768134</v>
       </c>
       <c r="T14">
-        <v>0.156832022717646</v>
+        <v>0.2566018737768134</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>65.44186166666667</v>
+        <v>61.65203333333333</v>
       </c>
       <c r="H15">
-        <v>196.325585</v>
+        <v>184.9561</v>
       </c>
       <c r="I15">
-        <v>0.4197760120361104</v>
+        <v>0.582235260574047</v>
       </c>
       <c r="J15">
-        <v>0.4197760120361104</v>
+        <v>0.5822352605740471</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.057317666666666</v>
+        <v>3.497096</v>
       </c>
       <c r="N15">
-        <v>12.171953</v>
+        <v>10.491288</v>
       </c>
       <c r="O15">
-        <v>0.0572541440551436</v>
+        <v>0.05284262633124592</v>
       </c>
       <c r="P15">
-        <v>0.0572541440551436</v>
+        <v>0.05284262633124593</v>
       </c>
       <c r="Q15">
-        <v>265.5184214797227</v>
+        <v>215.6030791618666</v>
       </c>
       <c r="R15">
-        <v>2389.665793317505</v>
+        <v>1940.4277124568</v>
       </c>
       <c r="S15">
-        <v>0.02403391626400916</v>
+        <v>0.03076684031138997</v>
       </c>
       <c r="T15">
-        <v>0.02403391626400916</v>
+        <v>0.03076684031138998</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>65.44186166666667</v>
+        <v>61.65203333333333</v>
       </c>
       <c r="H16">
-        <v>196.325585</v>
+        <v>184.9561</v>
       </c>
       <c r="I16">
-        <v>0.4197760120361104</v>
+        <v>0.582235260574047</v>
       </c>
       <c r="J16">
-        <v>0.4197760120361104</v>
+        <v>0.5822352605740471</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>31.73921966666667</v>
+        <v>25.75926033333333</v>
       </c>
       <c r="N16">
-        <v>95.217659</v>
+        <v>77.277781</v>
       </c>
       <c r="O16">
-        <v>0.4478825678163185</v>
+        <v>0.3892335149974776</v>
       </c>
       <c r="P16">
-        <v>0.4478825678163185</v>
+        <v>0.3892335149974776</v>
       </c>
       <c r="Q16">
-        <v>2077.073622833946</v>
+        <v>1588.110776712678</v>
       </c>
       <c r="R16">
-        <v>18693.66260550551</v>
+        <v>14292.9969904141</v>
       </c>
       <c r="S16">
-        <v>0.1880103581784269</v>
+        <v>0.2266254770287086</v>
       </c>
       <c r="T16">
-        <v>0.1880103581784269</v>
+        <v>0.2266254770287086</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.134262</v>
+        <v>0.10468</v>
       </c>
       <c r="H17">
-        <v>0.402786</v>
+        <v>0.31404</v>
       </c>
       <c r="I17">
-        <v>0.0008612219379556502</v>
+        <v>0.0009885868118471018</v>
       </c>
       <c r="J17">
-        <v>0.0008612219379556503</v>
+        <v>0.0009885868118471018</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.291888333333334</v>
+        <v>5.455768666666667</v>
       </c>
       <c r="N17">
-        <v>18.875665</v>
+        <v>16.367306</v>
       </c>
       <c r="O17">
-        <v>0.08878690568774233</v>
+        <v>0.0824390136851795</v>
       </c>
       <c r="P17">
-        <v>0.08878690568774233</v>
+        <v>0.0824390136851795</v>
       </c>
       <c r="Q17">
-        <v>0.84476151141</v>
+        <v>0.5711098640266666</v>
       </c>
       <c r="R17">
-        <v>7.60285360269</v>
+        <v>5.139988776239999</v>
       </c>
       <c r="S17">
-        <v>7.6465230981483E-05</v>
+        <v>8.149812171085119E-05</v>
       </c>
       <c r="T17">
-        <v>7.646523098148301E-05</v>
+        <v>8.149812171085119E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.134262</v>
+        <v>0.10468</v>
       </c>
       <c r="H18">
-        <v>0.402786</v>
+        <v>0.31404</v>
       </c>
       <c r="I18">
-        <v>0.0008612219379556502</v>
+        <v>0.0009885868118471018</v>
       </c>
       <c r="J18">
-        <v>0.0008612219379556503</v>
+        <v>0.0009885868118471018</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>6.902445</v>
       </c>
       <c r="O18">
-        <v>0.03246755720817405</v>
+        <v>0.03476630532942922</v>
       </c>
       <c r="P18">
-        <v>0.03246755720817405</v>
+        <v>0.03476630532942922</v>
       </c>
       <c r="Q18">
-        <v>0.30891202353</v>
+        <v>0.2408493142</v>
       </c>
       <c r="R18">
-        <v>2.78020821177</v>
+        <v>2.1676438278</v>
       </c>
       <c r="S18">
-        <v>2.79617725395096E-05</v>
+        <v>3.436951094532334E-05</v>
       </c>
       <c r="T18">
-        <v>2.79617725395096E-05</v>
+        <v>3.436951094532334E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.134262</v>
+        <v>0.10468</v>
       </c>
       <c r="H19">
-        <v>0.402786</v>
+        <v>0.31404</v>
       </c>
       <c r="I19">
-        <v>0.0008612219379556502</v>
+        <v>0.0009885868118471018</v>
       </c>
       <c r="J19">
-        <v>0.0008612219379556503</v>
+        <v>0.0009885868118471018</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>26.47580733333334</v>
+        <v>29.166511</v>
       </c>
       <c r="N19">
-        <v>79.42742200000001</v>
+        <v>87.499533</v>
       </c>
       <c r="O19">
-        <v>0.3736088252326215</v>
+        <v>0.4407185396566677</v>
       </c>
       <c r="P19">
-        <v>0.3736088252326215</v>
+        <v>0.4407185396566677</v>
       </c>
       <c r="Q19">
-        <v>3.554694844188</v>
+        <v>3.05315037148</v>
       </c>
       <c r="R19">
-        <v>31.992253597692</v>
+        <v>27.47835334332</v>
       </c>
       <c r="S19">
-        <v>0.0003217601165041721</v>
+        <v>0.0004356885360410957</v>
       </c>
       <c r="T19">
-        <v>0.0003217601165041722</v>
+        <v>0.0004356885360410957</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.134262</v>
+        <v>0.10468</v>
       </c>
       <c r="H20">
-        <v>0.402786</v>
+        <v>0.31404</v>
       </c>
       <c r="I20">
-        <v>0.0008612219379556502</v>
+        <v>0.0009885868118471018</v>
       </c>
       <c r="J20">
-        <v>0.0008612219379556503</v>
+        <v>0.0009885868118471018</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.057317666666666</v>
+        <v>3.497096</v>
       </c>
       <c r="N20">
-        <v>12.171953</v>
+        <v>10.491288</v>
       </c>
       <c r="O20">
-        <v>0.0572541440551436</v>
+        <v>0.05284262633124592</v>
       </c>
       <c r="P20">
-        <v>0.0572541440551436</v>
+        <v>0.05284262633124593</v>
       </c>
       <c r="Q20">
-        <v>0.5447435845619999</v>
+        <v>0.3660760092799999</v>
       </c>
       <c r="R20">
-        <v>4.902692261057999</v>
+        <v>3.29468408352</v>
       </c>
       <c r="S20">
-        <v>4.930852489916275E-05</v>
+        <v>5.223952349443412E-05</v>
       </c>
       <c r="T20">
-        <v>4.930852489916275E-05</v>
+        <v>5.223952349443413E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.134262</v>
+        <v>0.10468</v>
       </c>
       <c r="H21">
-        <v>0.402786</v>
+        <v>0.31404</v>
       </c>
       <c r="I21">
-        <v>0.0008612219379556502</v>
+        <v>0.0009885868118471018</v>
       </c>
       <c r="J21">
-        <v>0.0008612219379556503</v>
+        <v>0.0009885868118471018</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>31.73921966666667</v>
+        <v>25.75926033333333</v>
       </c>
       <c r="N21">
-        <v>95.217659</v>
+        <v>77.277781</v>
       </c>
       <c r="O21">
-        <v>0.4478825678163185</v>
+        <v>0.3892335149974776</v>
       </c>
       <c r="P21">
-        <v>0.4478825678163185</v>
+        <v>0.3892335149974776</v>
       </c>
       <c r="Q21">
-        <v>4.261371110886</v>
+        <v>2.696479371693333</v>
       </c>
       <c r="R21">
-        <v>38.352339997974</v>
+        <v>24.26831434524</v>
       </c>
       <c r="S21">
-        <v>0.0003857262930313228</v>
+        <v>0.0003847911196553975</v>
       </c>
       <c r="T21">
-        <v>0.0003857262930313228</v>
+        <v>0.0003847911196553975</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>83.93302799999999</v>
+        <v>39.47650533333334</v>
       </c>
       <c r="H22">
-        <v>251.799084</v>
+        <v>118.429516</v>
       </c>
       <c r="I22">
-        <v>0.5383873697147804</v>
+        <v>0.3728119273055513</v>
       </c>
       <c r="J22">
-        <v>0.5383873697147805</v>
+        <v>0.3728119273055513</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.291888333333334</v>
+        <v>5.455768666666667</v>
       </c>
       <c r="N22">
-        <v>18.875665</v>
+        <v>16.367306</v>
       </c>
       <c r="O22">
-        <v>0.08878690568774233</v>
+        <v>0.0824390136851795</v>
       </c>
       <c r="P22">
-        <v>0.08878690568774233</v>
+        <v>0.0824390136851795</v>
       </c>
       <c r="Q22">
-        <v>528.09723965454</v>
+        <v>215.3746808670996</v>
       </c>
       <c r="R22">
-        <v>4752.87515689086</v>
+        <v>1938.372127803896</v>
       </c>
       <c r="S22">
-        <v>0.04780174861833787</v>
+        <v>0.03073424757714049</v>
       </c>
       <c r="T22">
-        <v>0.04780174861833788</v>
+        <v>0.03073424757714049</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>83.93302799999999</v>
+        <v>39.47650533333334</v>
       </c>
       <c r="H23">
-        <v>251.799084</v>
+        <v>118.429516</v>
       </c>
       <c r="I23">
-        <v>0.5383873697147804</v>
+        <v>0.3728119273055513</v>
       </c>
       <c r="J23">
-        <v>0.5383873697147805</v>
+        <v>0.3728119273055513</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>6.902445</v>
       </c>
       <c r="O23">
-        <v>0.03246755720817405</v>
+        <v>0.03476630532942922</v>
       </c>
       <c r="P23">
-        <v>0.03246755720817405</v>
+        <v>0.03476630532942922</v>
       </c>
       <c r="Q23">
-        <v>193.11436981782</v>
+        <v>90.82813561851334</v>
       </c>
       <c r="R23">
-        <v>1738.02932836038</v>
+        <v>817.4532205666201</v>
       </c>
       <c r="S23">
-        <v>0.01748012272637298</v>
+        <v>0.01296129329515777</v>
       </c>
       <c r="T23">
-        <v>0.01748012272637299</v>
+        <v>0.01296129329515777</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>83.93302799999999</v>
+        <v>39.47650533333334</v>
       </c>
       <c r="H24">
-        <v>251.799084</v>
+        <v>118.429516</v>
       </c>
       <c r="I24">
-        <v>0.5383873697147804</v>
+        <v>0.3728119273055513</v>
       </c>
       <c r="J24">
-        <v>0.5383873697147805</v>
+        <v>0.3728119273055513</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>26.47580733333334</v>
+        <v>29.166511</v>
       </c>
       <c r="N24">
-        <v>79.42742200000001</v>
+        <v>87.499533</v>
       </c>
       <c r="O24">
-        <v>0.3736088252326215</v>
+        <v>0.4407185396566677</v>
       </c>
       <c r="P24">
-        <v>0.3736088252326215</v>
+        <v>0.4407185396566677</v>
       </c>
       <c r="Q24">
-        <v>2222.194678231272</v>
+        <v>1151.391927046225</v>
       </c>
       <c r="R24">
-        <v>19999.75210408145</v>
+        <v>10362.52734341603</v>
       </c>
       <c r="S24">
-        <v>0.2011462727192202</v>
+        <v>0.1643051281686903</v>
       </c>
       <c r="T24">
-        <v>0.2011462727192202</v>
+        <v>0.1643051281686903</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>83.93302799999999</v>
+        <v>39.47650533333334</v>
       </c>
       <c r="H25">
-        <v>251.799084</v>
+        <v>118.429516</v>
       </c>
       <c r="I25">
-        <v>0.5383873697147804</v>
+        <v>0.3728119273055513</v>
       </c>
       <c r="J25">
-        <v>0.5383873697147805</v>
+        <v>0.3728119273055513</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.057317666666666</v>
+        <v>3.497096</v>
       </c>
       <c r="N25">
-        <v>12.171953</v>
+        <v>10.491288</v>
       </c>
       <c r="O25">
-        <v>0.0572541440551436</v>
+        <v>0.05284262633124592</v>
       </c>
       <c r="P25">
-        <v>0.0572541440551436</v>
+        <v>0.05284262633124593</v>
       </c>
       <c r="Q25">
-        <v>340.5429573212279</v>
+        <v>138.0531288951786</v>
       </c>
       <c r="R25">
-        <v>3064.886615891051</v>
+        <v>1242.478160056608</v>
       </c>
       <c r="S25">
-        <v>0.0308249080231199</v>
+        <v>0.01970036136643886</v>
       </c>
       <c r="T25">
-        <v>0.0308249080231199</v>
+        <v>0.01970036136643887</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>83.93302799999999</v>
+        <v>39.47650533333334</v>
       </c>
       <c r="H26">
-        <v>251.799084</v>
+        <v>118.429516</v>
       </c>
       <c r="I26">
-        <v>0.5383873697147804</v>
+        <v>0.3728119273055513</v>
       </c>
       <c r="J26">
-        <v>0.5383873697147805</v>
+        <v>0.3728119273055513</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>31.73921966666667</v>
+        <v>25.75926033333333</v>
       </c>
       <c r="N26">
-        <v>95.217659</v>
+        <v>77.277781</v>
       </c>
       <c r="O26">
-        <v>0.4478825678163185</v>
+        <v>0.3892335149974776</v>
       </c>
       <c r="P26">
-        <v>0.4478825678163185</v>
+        <v>0.3892335149974776</v>
       </c>
       <c r="Q26">
-        <v>2663.968812980484</v>
+        <v>1016.885577931555</v>
       </c>
       <c r="R26">
-        <v>23975.71931682435</v>
+        <v>9151.970201383998</v>
       </c>
       <c r="S26">
-        <v>0.2411343176277295</v>
+        <v>0.1451108968981238</v>
       </c>
       <c r="T26">
-        <v>0.2411343176277295</v>
+        <v>0.1451108968981238</v>
       </c>
     </row>
   </sheetData>
